--- a/FileBaoCao/PhacThaoTongQuat.xlsx
+++ b/FileBaoCao/PhacThaoTongQuat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCHOOL\NAM5-HK1\PTTKDBCL-KTLTHDT\Electronic_Components_Website\FileBaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F168A-8988-47E2-ABF1-F12AD076C61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429EA370-FBD8-4915-9FD6-6753E973F7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4860443-98FB-4ACC-960F-67FE5FE36243}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="20" activeTab="24" xr2:uid="{D4860443-98FB-4ACC-960F-67FE5FE36243}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -19,12 +19,58 @@
     <sheet name="Trang chủ" sheetId="1" r:id="rId4"/>
     <sheet name="Login" sheetId="2" r:id="rId5"/>
     <sheet name="Register" sheetId="3" r:id="rId6"/>
+    <sheet name="ListProduct" sheetId="7" r:id="rId7"/>
+    <sheet name="DetailProduct" sheetId="8" r:id="rId8"/>
+    <sheet name="Cart" sheetId="9" r:id="rId9"/>
+    <sheet name="Payment" sheetId="10" r:id="rId10"/>
+    <sheet name="ListOrder" sheetId="11" r:id="rId11"/>
+    <sheet name="DetailOrder" sheetId="12" r:id="rId12"/>
+    <sheet name="InforUser" sheetId="13" r:id="rId13"/>
+    <sheet name="Admin_Customer" sheetId="14" r:id="rId14"/>
+    <sheet name="Admin_Employee" sheetId="15" r:id="rId15"/>
+    <sheet name="Admin_Supplier" sheetId="18" r:id="rId16"/>
+    <sheet name="Admin_AddSupplier" sheetId="19" r:id="rId17"/>
+    <sheet name="Admin_Shipping Unit" sheetId="21" r:id="rId18"/>
+    <sheet name="Admin_AddShippingUnit" sheetId="22" r:id="rId19"/>
+    <sheet name="Admin_Product" sheetId="24" r:id="rId20"/>
+    <sheet name="Admin_AddProduct" sheetId="25" r:id="rId21"/>
+    <sheet name="Admin_DetailProduct" sheetId="26" r:id="rId22"/>
+    <sheet name="Admin_Import" sheetId="27" r:id="rId23"/>
+    <sheet name="Admin_AddImport" sheetId="28" r:id="rId24"/>
+    <sheet name="Admin_DetailImport" sheetId="29" r:id="rId25"/>
+    <sheet name="Admin_Order" sheetId="30" r:id="rId26"/>
+    <sheet name="Admin_DetailOrder" sheetId="31" r:id="rId27"/>
+    <sheet name="Admin_updateUser" sheetId="32" r:id="rId28"/>
+    <sheet name="Admin_updatePassword" sheetId="33" r:id="rId29"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="23">Admin_AddImport!$A$1:$Q$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">Admin_AddProduct!$A$1:$Q$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">Admin_AddShippingUnit!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">Admin_AddSupplier!$A$1:$Q$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">Admin_Customer!$A$1:$Q$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="24">Admin_DetailImport!$A$1:$Q$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="26">Admin_DetailOrder!$A$1:$Q$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">Admin_DetailProduct!$A$1:$Q$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">Admin_Employee!$A$1:$Q$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="22">Admin_Import!$A$1:$Q$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="25">Admin_Order!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">Admin_Product!$A$1:$Q$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">Admin_Supplier!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="28">Admin_updatePassword!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="27">Admin_updateUser!$A$1:$Q$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Business Function'!$A$1:$V$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Cart!$A$1:$Q$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$Q$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">DetailOrder!$A$1:$Q$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">DetailProduct!$A$1:$Q$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">InforUser!$A$1:$Q$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">ListOrder!$A$1:$Q$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">ListProduct!$A$1:$Q$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Login!$A$1:$Q$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Modification History'!$A$1:$V$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Payment!$A$1:$Q$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Register!$A$1:$Q$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Trang chủ'!$A$1:$Q$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="177">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -48,9 +94,6 @@
     <t>Tên hê thống</t>
   </si>
   <si>
-    <t>Tìm kiếm việc và người giúp việc</t>
-  </si>
-  <si>
     <t>Người tạo</t>
   </si>
   <si>
@@ -169,6 +212,408 @@
   </si>
   <si>
     <t>Detail</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Màn hình đăng ký</t>
+  </si>
+  <si>
+    <t>- Dùng để user đăng ký tài khoản với ứng dụng</t>
+  </si>
+  <si>
+    <t>- Người dùng nhập đầy đủ Họ tên, email, địa chỉ, số điện thoại, mật khẩu để đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Đăng ký, hệ thống sẽ kiểm tra email hay chưa và tiến hành đăng ký tài khoản vào hệ thống</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi, đăng ký thành công sẽ chuyển sang màn hình trang chủ</t>
+  </si>
+  <si>
+    <t>Website bán linh kiện điện tử</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Màn hình danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>- Dùng để xem danh sách sản phẩm và tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>- Người dùng nhập tên sản phẩm để tìm kiếm sản phẩm phù hợp</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button chi tiết để có thể xem chi tiết của một sản phẩm</t>
+  </si>
+  <si>
+    <t>- Dùng xem thông tin chi tiết một sản phẩm và thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>- Người dùng điều chỉ số lượng và nhấn button "Thêm vào giỏ hàng" để thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>- Khi nhấn Button "thông tin sản phẩm" trang sẽ hiễn thị thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>- Khi nhấn Button "Đánh giá" trang sẽ hiễn các lược đánh giá sản phẩm từ những khách hàng đã mua sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp người dùng chưa đăng nhập, không thể thêm sản phẩm vào giỏ hàng và hiển thị thông báo thêm thất bại </t>
+  </si>
+  <si>
+    <t>Trường hợp người dùng đã đăng nhập, hiển thị thông báo thêm thành công</t>
+  </si>
+  <si>
+    <t>DetailProduct</t>
+  </si>
+  <si>
+    <t>Màn hình chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>- Dùng để xem những sản phẩm đã được thêm vào giỏ hàng và điều chỉ sản phẩm, số lượng để đặt hàng</t>
+  </si>
+  <si>
+    <t>- Người dùng nhấn Button " + ", " - " để điều chỉ số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Trường hơp tăng số lượng quá tồn kho thì sẽ thông báo lỗi</t>
+  </si>
+  <si>
+    <t>'- Người dùng nhấn Button " x " để xóa sản phẩm ra khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Đặt hàng các sản phẩm trong giỏ sẽ được đặt và chuyển đến màn hình thanh toán</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Màn hình giỏ hàng</t>
+  </si>
+  <si>
+    <t>- Dùng để người dùng đặt các sản phẩm muốn mua</t>
+  </si>
+  <si>
+    <t>- Người dùng nhập thông tin địa chỉ giao hàng, số điện thoại, chọn phương thức thanh toán, đơn vị vận chuyển</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi, đặt hàng thành công, thông báo đặt hàng thành công và chuyển sang màn hình đơn hàng</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Màn hình thanh toán</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Thanh toán để tiến hành đặt hàng, hệ thống sẽ kiểm tra dữ liệu thông tin nhập</t>
+  </si>
+  <si>
+    <t>- Dùng để hiển thị danh sách đơn đặt hàng khách hàng đã đặt</t>
+  </si>
+  <si>
+    <t>- Khi nhấn vào một đơn hàng bất kỳ sẽ chuyển sang màn hình chi tiết đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>ListOrder</t>
+  </si>
+  <si>
+    <t>Màn hình danh sách đơn hàng</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Đánh giá, khách hàng có thể gửi phản hồi về sản phẩm đã mua</t>
+  </si>
+  <si>
+    <t>- Dùng để người dùng xem chi tiết đơn hàng đã đặt và theo dõi quá trình của đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>DetailOrder</t>
+  </si>
+  <si>
+    <t>- Dùng để xem thông tin cá nhân, cập nhật thông tin và đổi mật khẩu tài khoản</t>
+  </si>
+  <si>
+    <t>- Trước khi thay đổi thông tin, người dùng phải nhập đầy đủ thông tin họ tên, địa chỉ, số điện thoại, (email không thể thay đổi)</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button thay đổi thông tin, hệ thống sẽ kiểm tra thông tin</t>
+  </si>
+  <si>
+    <t>+ Nếu có lỗi sẽ hiển thị thông báo lỗi</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi, thay đổi thành công sẽ hiễn thị thông báo thay đổi thành công</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Đổi mật khẩu, sẽ chuyển đến màn hình thay đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>InforUser</t>
+  </si>
+  <si>
+    <t>Màn hình thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>- Dùng để quản lý danh sách khách hàng</t>
+  </si>
+  <si>
+    <t>- Nhân viên có thể cập nhật trạng thái hoạt động của khách hàng thông qua nhấn button chấm than</t>
+  </si>
+  <si>
+    <t>Admin_customer</t>
+  </si>
+  <si>
+    <t>Màn hình danh sách khách hàng</t>
+  </si>
+  <si>
+    <t>Admin_employee</t>
+  </si>
+  <si>
+    <t>Màn hình danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>- Dùng để người dùng đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>- Người dùng nhập đầy đủ mật khẩu hiện tại, mật khẩu mới, nhập lại mật khẩu mới</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Thay đổi, hệ thống sẽ kiểm tra mật khẩu hiện tại đúng không</t>
+  </si>
+  <si>
+    <t>+ Nếu mật khẩu sai, hiển thị lỗi và thông báo ra màn hình.</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi,đổi mật khẩu thành công sẽ chuyển về màn hình tài khoản</t>
+  </si>
+  <si>
+    <t>Admin_updatePassword</t>
+  </si>
+  <si>
+    <t>Màn hình đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>- Dùng để xem thông tin tài khoản và cập nhật trong tin tài khoản</t>
+  </si>
+  <si>
+    <t>- Người dùng xem thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi, thay đổi thông tin thành công và thông báo thành công tại màn hình này</t>
+  </si>
+  <si>
+    <t>- Trường hợp muốn thay đổi thông tin, người dùng sửa đổi thông tin muốn cập nhật</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Cập nhật, hệ thống sẽ kiểm tra thông tin nhập vào (trường hợp này, các trường không được để trống)</t>
+  </si>
+  <si>
+    <t>Admin_updateUser</t>
+  </si>
+  <si>
+    <t>Màn hình thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>- Dùng để người dung xem chi tiết đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>Admin_DetailOrder</t>
+  </si>
+  <si>
+    <t>Màn hình thông tin đơn hàng</t>
+  </si>
+  <si>
+    <t>- Dùng để xem danh sách đơn đặt hàng từ khách hàng và cập nhật trạng thái đơn hàng</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button chấm than, người dùng có thể cập nhật trạng thái đơn đặt hàng (trạng thái cập nhật: xác nhận, đang vận chuyển, đã giao, hủy)</t>
+  </si>
+  <si>
+    <t>Hệ thống sẽ kiểm tra trạng thái đơn và cập nhật</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi, cập nhật thành công sẽ thông báo thành công tại màn hình này</t>
+  </si>
+  <si>
+    <t>- Khi nhấn vào đơn hàng bất kì sẽ chuyển đến màn hình chi tiết đơn hàng</t>
+  </si>
+  <si>
+    <t>Admin_Order</t>
+  </si>
+  <si>
+    <t>- Dùng để xem chi tiết đơn nhập hàng</t>
+  </si>
+  <si>
+    <t>Admin_DetailImport</t>
+  </si>
+  <si>
+    <t>Màn hình thông tin phiếu nhập</t>
+  </si>
+  <si>
+    <t>- Dùng để tạo phiếu nhập hàng</t>
+  </si>
+  <si>
+    <t>- Người dùng nhập tên, chọn nhà cung cấp, thêm sản phẩm nhập cùng với giá nhập và số lượng</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Thêm, hệ thống sẽ kiểm tra thông tin phiếu nhập và tiến hành lưu thông tin</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi, tạo phiếu nhập thành công sẽ chuyển sang màn hình danh sách phiếu nhập</t>
+  </si>
+  <si>
+    <t>Admin_AddImport</t>
+  </si>
+  <si>
+    <t>Màn hình thêm phiếu nhập</t>
+  </si>
+  <si>
+    <t>- Dùng để xem danh sách phiếu nhập</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Thêm phiếu nhập sẽ chuyển đến màn hình thêm phiếu nhập</t>
+  </si>
+  <si>
+    <t>- Khi nhấn bất kì phiếu nhập nào sẽ chuyển đến màn hình thông tin phiếu nhập</t>
+  </si>
+  <si>
+    <t>Admin_Import</t>
+  </si>
+  <si>
+    <t>Màn hình danh sách phiếu nhập</t>
+  </si>
+  <si>
+    <t>- Dùng để xem thông tin chi tiết sản phẩm và cập nhật thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>- Người dùng có thể nhập thông tin muốn thay đổi</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Update, hệ thống sẽ kiểm tra thông tin và lưu vào hệ thống</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi, cập nhật thành công sẽ hiễn thị thông báo thành công tại màn hình này</t>
+  </si>
+  <si>
+    <t>Admin_DetailProduct</t>
+  </si>
+  <si>
+    <t>Màn hình thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>- Dùng để thêm sản phẩm mới vào hệ thống</t>
+  </si>
+  <si>
+    <t>- Người dùng nhập đầy đủ tên sản phẩm, mô tả tính năng, chọn hình ảnh, nhà cung cấp, danh mục, thuế, thêm giá, thông số kỹ thuật</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Thêm, hệ thống sẽ kiểm tra thông tin sản phẩm mới và lưu vào hệ thống</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi, thêm sản phẩm mới thành công sẽ chuyển sang màn hình danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>Admin_AddProduct</t>
+  </si>
+  <si>
+    <t>Màn hình thêm sản phẩm</t>
+  </si>
+  <si>
+    <t>- Dùng để quản lý danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Thêm sản phẩm sẽ chuyển đến màn hình thêm sản phẩm</t>
+  </si>
+  <si>
+    <t>'- Khi nhấn vào sản phẩm bất kì sẽ chuyển đến màn hình chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Admin_Product</t>
+  </si>
+  <si>
+    <t>Admin_AddShippingUnit</t>
+  </si>
+  <si>
+    <t>Màn hình thêm đơn vị vận chuyển</t>
+  </si>
+  <si>
+    <t>- Dùng để thêm đơn vị vận chuyển mới</t>
+  </si>
+  <si>
+    <t>- Người dùng nhập đầy đủ email, tên đơn vị, địa chỉ, số điện thoại</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Add, hệ thống sẽ kiểm tra thông tin và lưu trữ</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi, thêm đơn vị vận chuyển thành công sẽ chuyển sang màn hình danh sách đơn vị vận chuyển</t>
+  </si>
+  <si>
+    <t>- Dùng để thêm nhà cung cấp mới</t>
+  </si>
+  <si>
+    <t>- Người dùng nhập đầy đủ email, tên nhà cung cấp, địa chỉ, số điện thoại</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi, thêm nhà cung cấp thành công sẽ chuyển sang màn hình danh sách nhà cung cấp</t>
+  </si>
+  <si>
+    <t>- Dùng để quản lý danh sách nhà cung cấp</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Thêm đơn vị vận chuyển sẽ chuyển đến màn hình thêm đơn vị vận chuyển</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button xóa, hệ thống sẽ kiểm tra và xóa đơn vị vận chuyển</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi,xóa đơn vị thành công sẽ thông báo thành công tại màn hình này</t>
+  </si>
+  <si>
+    <t>Admin_Shipping Unit</t>
+  </si>
+  <si>
+    <t>Màn hình danh sách đơn vị vận chuyển</t>
+  </si>
+  <si>
+    <t>Admin_AddSupplier</t>
+  </si>
+  <si>
+    <t>Màn hình thêm nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Admin_Supplier</t>
+  </si>
+  <si>
+    <t>Màn hình danh sách nhà cung cấp</t>
+  </si>
+  <si>
+    <t>- Dùng để quản lý danh sách đơn vị vận chuyển</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button Thêm đơn vị vận chuyển sẽ chuyển đến màn hình thêm  nhà cung cấp</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button xóa, hệ thống sẽ kiểm tra và xóa nhà cung cấp</t>
+  </si>
+  <si>
+    <t>+ Nếu không có lỗi,xóa nhà cung cấp thành công sẽ thông báo thành công tại màn hình này</t>
+  </si>
+  <si>
+    <t>- Dùng để quản lý danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>- Khi nhấn button tạo nhân viên sẽ chuyển đến màn hình tạo nhân viên mới</t>
+  </si>
+  <si>
+    <t>'- Khi nhấn vào nhân viên bất kì sẽ chuyển đến màn hình thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>'- Khi nhấn button chấm than có thể chỉnh sửa hoạt hông của nhân viên đó</t>
   </si>
 </sst>
 </file>
@@ -582,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -597,10 +1042,64 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -613,6 +1112,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -645,69 +1150,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8266,6 +8710,552 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>165847</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2649E68A-70AA-4130-8196-48D64D1F97D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="3"/>
+          <a:endCxn id="122" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4756150" y="11550424"/>
+          <a:ext cx="730250" cy="88966"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327946</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>172240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F578E054-B834-6EB6-2C74-C8CEF6977F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1112520"/>
+          <a:ext cx="6601746" cy="5658640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297049</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DE9F8E-8AAF-B85E-FF40-87C2B5FCE7DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1295400"/>
+          <a:ext cx="6024749" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152786</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8948C2F0-6BCA-434E-AA78-EF87FB698AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1295400"/>
+          <a:ext cx="6858386" cy="3373464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>756632</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7230CA7B-A6FA-16F3-5FB9-9E814A78BB5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828801" y="1295400"/>
+          <a:ext cx="7030431" cy="3505689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>663920</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8E630C-EE92-3823-19F1-82D0D260CB68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1112520"/>
+          <a:ext cx="7026620" cy="3524742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>732500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>27159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09FD891-E57F-E935-6775-D327D1A4630E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1112520"/>
+          <a:ext cx="7019000" cy="3501879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>722342</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1D88D4-8916-9C46-3C06-5FC6BB944D96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1112520"/>
+          <a:ext cx="7034242" cy="3482826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>78447</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C772AF-8B78-EBBD-02F5-50E39C7D7395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1112520"/>
+          <a:ext cx="6999947" cy="3494258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324832</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E28E443-4F34-24B9-4908-7C386C29B601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219201" y="1112520"/>
+          <a:ext cx="7030431" cy="3543794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>156887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D0AFFC-C4EE-502C-D526-5C9D48B48216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1813560" y="1112521"/>
+          <a:ext cx="6301740" cy="5094646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8318,6 +9308,398 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>510541</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F84CE5-0F6C-A6A9-3DDA-B5431A99D232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339341" y="929640"/>
+          <a:ext cx="5303519" cy="5591363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>649947</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83C8AC1-A34F-043E-FEEF-C88D0365A5D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1112520"/>
+          <a:ext cx="6999947" cy="3524742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321020</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB98AE8D-99E5-348C-CA4E-8D7000A34506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1112520"/>
+          <a:ext cx="7026620" cy="3505689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>385800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67763242-3854-2C88-26AA-6D7D60EE1E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1112520"/>
+          <a:ext cx="7091400" cy="3524742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>328642</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A815D095-D299-4BC1-6D69-FA40E7148D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1112520"/>
+          <a:ext cx="7034242" cy="3528552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>370558</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2126CF60-9FE3-0384-7555-0D60ACFEAB5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1112520"/>
+          <a:ext cx="7076158" cy="3482826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>416333</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C00F2A-3838-14A6-AE18-9D6FEC181791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828801" y="1112521"/>
+          <a:ext cx="6512332" cy="5326380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>309590</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A4C403-A0DD-B963-2BEC-AED15665BDF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821180" y="1287780"/>
+          <a:ext cx="7022810" cy="3311352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -8356,6 +9738,300 @@
         <a:xfrm>
           <a:off x="1912620" y="1348740"/>
           <a:ext cx="6164580" cy="5155790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608374</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>73015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9235D502-C147-873F-74CD-1088890DEBDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1836420" y="1280160"/>
+          <a:ext cx="4867954" cy="4477375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480107</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104E93A1-61E7-5399-4054-4A421375F230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="1478280"/>
+          <a:ext cx="4887007" cy="5287113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>606473</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FC5412-78A0-0A95-25AA-715CE636FC37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2415540" y="868681"/>
+          <a:ext cx="4896533" cy="5966460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>256719</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED5934B-349F-3EA9-073B-E9A90F00AF4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1988820" y="975361"/>
+          <a:ext cx="5227499" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C533EB1B-5400-2C2E-D71D-89B89739FB9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1092200"/>
+          <a:ext cx="5524500" cy="5556433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>116345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04AC4732-4614-E65A-A8D2-1FC539B20F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821180" y="1280161"/>
+          <a:ext cx="5829300" cy="5252224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8664,63 +10340,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EB5F45-A0DD-4C5B-A7AE-9DC51206F1F2}">
-  <dimension ref="A13:Q43"/>
+  <dimension ref="F13:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="13" spans="6:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="6:11" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="6:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F16" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="F19" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="6:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="6:11" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
@@ -8732,108 +10404,112 @@
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J35" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35" s="22"/>
-      <c r="L35" s="7">
+      <c r="L35" s="21">
         <v>1</v>
       </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="22" t="s">
-        <v>27</v>
-      </c>
       <c r="O37" s="22"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
       <c r="P39" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q39" s="22"/>
     </row>
     <row r="40" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q40" s="30"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="23"/>
     </row>
     <row r="41" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
     </row>
     <row r="42" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
     </row>
     <row r="43" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L37:M38"/>
+    <mergeCell ref="P37:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q43"/>
     <mergeCell ref="F13:K13"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="F19:K19"/>
@@ -8847,13 +10523,1599 @@
     <mergeCell ref="J35:K36"/>
     <mergeCell ref="J37:K38"/>
     <mergeCell ref="N37:O38"/>
-    <mergeCell ref="L37:M38"/>
-    <mergeCell ref="P37:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9769CE11-AC02-41F6-873A-9117A17AC106}">
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C181E192-6964-4175-BF48-9678E3E4A15D}">
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD426FD1-36E8-42EA-A5A4-721B70D4433B}">
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FBC316-14AB-4868-A970-E706798AFEB6}">
+  <dimension ref="A1:Q48"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="4"/>
+      <c r="D44" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="4"/>
+      <c r="D45" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0CFC71-3DFF-409E-92A7-C61C1382104B}">
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015B682D-9890-415A-8D21-28B5DA647131}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635F8D7F-6550-479C-914D-55E043F27F5A}">
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAABE51E-230C-4A51-890F-9756DC96765D}">
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BF06BE-019D-4B51-AC96-6CB48E663136}">
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4502959-7FB7-4FDF-820B-38D8744B177A}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8874,116 +12136,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="23"/>
+      <c r="P1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>41</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -9002,727 +12264,728 @@
       <c r="V6" s="27"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="42"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="46"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="46"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="46"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="46"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="46"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="46"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="14"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="46"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="14"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="46"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="14"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="46"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="14"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="46"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="14"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="46"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="14"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="46"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="14"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="46"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="14"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="46"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="14"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="46"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="14"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="46"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="14"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="46"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="14"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="46"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="14"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="46"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="14"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="46"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="14"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="46"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="14"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="46"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="14"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="46"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="14"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="46"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="14"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="46"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="14"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="46"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="14"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="46"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="14"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="46"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="14"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="50"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:I3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:V3"/>
     <mergeCell ref="B6:C6"/>
@@ -9740,10 +13003,1547 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F1:H2"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA002888-43E8-49BB-B841-28B3C0D31462}">
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D648940-9AF9-4F56-8007-085EA413A119}">
+  <dimension ref="A1:Q42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4"/>
+      <c r="D41" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="4"/>
+      <c r="D42" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D4D527-0BD9-4271-BE78-ACF2CEA0D624}">
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19504FF8-135E-4765-8C7E-B3D4BA546C78}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6343ED92-BD8D-4E7B-A360-839DC983CB28}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="9.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9C5FDF-0DCB-4F98-9775-C60667AAE98A}">
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84CC18B-F90F-4027-B9A9-D3362B8EB356}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CC7391-C238-4F1C-8B94-AD339859DB70}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83B853C-3224-4B31-9BFA-F6EB5C9FBAE9}">
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12490DD8-7D9C-4759-A7A8-C6017007B81E}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9751,115 +14551,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE2C3A4-BF50-4825-A08C-CC18E31B7DFC}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A29" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="23"/>
+      <c r="P1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="N1:O3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S2"/>
-    <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:V3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="A1:C3"/>
@@ -9870,6 +14665,11 @@
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="N1:O3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="T1:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -9882,115 +14682,115 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+      <selection activeCell="I1" sqref="I1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="7" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -10020,130 +14820,130 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection sqref="A1:Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="7" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D44" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D45" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -10170,12 +14970,634 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3281B1-B6E8-4CDA-9D4B-22C10A576A57}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93E3B22-24CD-4A2F-85AA-BE81A9CFD436}">
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3298DA-D5CF-472A-93AA-F39A0AB73135}">
+  <dimension ref="A1:Q47"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="4"/>
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="4"/>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D4286C-0025-4A33-AA9A-776149E96C0B}">
+  <dimension ref="A1:Q39"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="4"/>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>